--- a/Fichier_excel/Reseau_16.xlsx
+++ b/Fichier_excel/Reseau_16.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t xml:space="preserve">Numero du noeud</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t xml:space="preserve">Imax(A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parametre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valeur</t>
   </si>
   <si>
     <t xml:space="preserve">Tension secondaire transformateur (pu)</t>
@@ -92,7 +98,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -114,6 +120,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -172,7 +185,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -185,11 +198,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -273,7 +294,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -285,29 +306,29 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="1" width="10.85"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -809,23 +830,23 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="1" width="10.85"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1219,31 +1240,31 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="1" width="10.85"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="n">
@@ -1281,10 +1302,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="n">
@@ -1301,10 +1322,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="n">
@@ -1321,10 +1342,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="n">
@@ -1361,10 +1382,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>10</v>
       </c>
       <c r="C8" s="1" t="n">
@@ -1441,10 +1462,10 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>6</v>
       </c>
       <c r="C12" s="1" t="n">
@@ -1481,10 +1502,10 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>11</v>
       </c>
       <c r="C14" s="1" t="n">
@@ -1521,10 +1542,10 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>16</v>
       </c>
       <c r="C16" s="1" t="n">
@@ -1541,10 +1562,10 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>15</v>
       </c>
       <c r="C17" s="1" t="n">
@@ -1561,10 +1582,10 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>14</v>
       </c>
       <c r="C18" s="1" t="n">
@@ -1581,10 +1602,10 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>18</v>
       </c>
       <c r="C19" s="1" t="n">
@@ -1616,39 +1637,47 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="34.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="4.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="34.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="4.86"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4" t="n">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="n">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="6" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="4" t="n">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="6" t="n">
         <v>20</v>
       </c>
     </row>

--- a/Fichier_excel/Reseau_16.xlsx
+++ b/Fichier_excel/Reseau_16.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Description noeuds" sheetId="1" state="visible" r:id="rId2"/>
@@ -98,7 +98,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -120,13 +120,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -185,7 +178,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -195,10 +188,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -293,8 +282,8 @@
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="1" sqref="C10:C11 B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -306,29 +295,29 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="1" width="10.85"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -819,7 +808,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C10:C11 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -830,23 +819,23 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="1" width="10.85"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1229,7 +1218,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="1" sqref="C10:C11 G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1240,31 +1229,31 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="1" width="10.85"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="3" t="n">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="n">
@@ -1302,10 +1291,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="n">
@@ -1322,10 +1311,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="n">
@@ -1342,10 +1331,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="3" t="n">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="n">
@@ -1382,10 +1371,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="3" t="n">
         <v>10</v>
       </c>
       <c r="C8" s="1" t="n">
@@ -1462,10 +1451,10 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+      <c r="A12" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="3" t="n">
         <v>6</v>
       </c>
       <c r="C12" s="1" t="n">
@@ -1502,10 +1491,10 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
+      <c r="A14" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="3" t="n">
         <v>11</v>
       </c>
       <c r="C14" s="1" t="n">
@@ -1542,10 +1531,10 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
+      <c r="A16" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="3" t="n">
         <v>16</v>
       </c>
       <c r="C16" s="1" t="n">
@@ -1562,10 +1551,10 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
+      <c r="A17" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="3" t="n">
         <v>15</v>
       </c>
       <c r="C17" s="1" t="n">
@@ -1582,10 +1571,10 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
+      <c r="A18" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="3" t="n">
         <v>14</v>
       </c>
       <c r="C18" s="1" t="n">
@@ -1602,10 +1591,10 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
+      <c r="A19" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="3" t="n">
         <v>18</v>
       </c>
       <c r="C19" s="1" t="n">
@@ -1639,45 +1628,45 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="34.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="4.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="34.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="4.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="6" t="n">
+      <c r="B3" s="5" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="6" t="n">
+      <c r="B4" s="5" t="n">
         <v>20</v>
       </c>
     </row>

--- a/Fichier_excel/Reseau_16.xlsx
+++ b/Fichier_excel/Reseau_16.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Description noeuds" sheetId="1" state="visible" r:id="rId2"/>
@@ -282,8 +282,8 @@
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="1" sqref="C10:C11 B20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="G7:H7 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -808,7 +808,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C10:C11 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G7:H7 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1217,8 +1217,8 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="1" sqref="C10:C11 G8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1628,8 +1628,8 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C10:C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="1" sqref="G7:H7 C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
